--- a/data/trans_camb/P34_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P34_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-12.49179120965711</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11.38222652467351</v>
+        <v>11.38222652467352</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-4.910951685475934</v>
@@ -655,7 +655,7 @@
         <v>-5.199496691759481</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>33.59739025731096</v>
+        <v>33.59739025731098</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-11.0606078434513</v>
@@ -664,7 +664,7 @@
         <v>-8.939138272394848</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>22.35276758683068</v>
+        <v>22.35276758683067</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-24.3908337662195</v>
+        <v>-24.77744273454224</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-20.58476433973226</v>
+        <v>-20.81131787983946</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.512459817108183</v>
+        <v>2.981480054696595</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-13.16288844892512</v>
+        <v>-13.0453337232999</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-13.20181444269163</v>
+        <v>-12.74704951975447</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>26.31842745338211</v>
+        <v>25.98512215781935</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-17.11131014640663</v>
+        <v>-17.07474162882471</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-14.62073125788429</v>
+        <v>-14.95896242546412</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.73946497943965</v>
+        <v>16.23911636388523</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-8.79592690827949</v>
+        <v>-8.766698946520716</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.044914494067089</v>
+        <v>-3.613747589022034</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.62021478573236</v>
+        <v>19.40292429289039</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.029766833521602</v>
+        <v>2.968980985785242</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.891007371948903</v>
+        <v>3.079440135998986</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>41.30113895996346</v>
+        <v>40.7059553513087</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-5.248020191085119</v>
+        <v>-5.512013106298259</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.9910326534717</v>
+        <v>-3.024446247583113</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>27.68117721745067</v>
+        <v>27.75397668921054</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.271341839569709</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2472403061953532</v>
+        <v>0.2472403061953534</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1560389151012841</v>
@@ -769,7 +769,7 @@
         <v>-0.2299449862145987</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5749890736654752</v>
+        <v>0.5749890736654749</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5024463830702072</v>
+        <v>-0.5046788228997289</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4050511563827266</v>
+        <v>-0.4146123648150425</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.06573728696787118</v>
+        <v>0.05608071136320514</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3697363075318352</v>
+        <v>-0.3623775233602361</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.379790313169351</v>
+        <v>-0.3541975223686427</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7164783823041491</v>
+        <v>0.7079520062211411</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4079476898844258</v>
+        <v>-0.4090422548256974</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3520288272818139</v>
+        <v>-0.355116337853403</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3970813489926236</v>
+        <v>0.3921444724747107</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2027464140814453</v>
+        <v>-0.2045464786415243</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.09371372506024343</v>
+        <v>-0.08683704679544067</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4723734858756516</v>
+        <v>0.4706059852676028</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.109434123004321</v>
+        <v>0.1144612380739411</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1040764848671231</v>
+        <v>0.1188895804335496</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.581593528844381</v>
+        <v>1.534808736667899</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1448689124589013</v>
+        <v>-0.1535479911182011</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.0875436755828584</v>
+        <v>-0.08108633369527264</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7866995941946993</v>
+        <v>0.7856511994458181</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-11.87380126132411</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-13.21427529183278</v>
+        <v>-13.21427529183277</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>8.623457995767165</v>
@@ -878,7 +878,7 @@
         <v>-6.054135946828837</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-9.475120175625445</v>
+        <v>-9.47512017562544</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.246822564001754</v>
+        <v>-9.63919064058199</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-17.86506815723428</v>
+        <v>-18.14743037902836</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-19.1532653585199</v>
+        <v>-18.75508484315704</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.245573882749905</v>
+        <v>2.756669649710466</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.174139351674318</v>
+        <v>-5.865089642089718</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-10.95126667993889</v>
+        <v>-10.90161017494749</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.937225241662805</v>
+        <v>-1.125628271885409</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-10.56232913156135</v>
+        <v>-9.990891934079697</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-13.41630887626415</v>
+        <v>-13.41215849199615</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.569335954051347</v>
+        <v>3.548856614469523</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.135436683721189</v>
+        <v>-6.119976504135422</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-6.415368509741872</v>
+        <v>-7.047318623077736</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.79075433748125</v>
+        <v>14.48751077523443</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.939146934722891</v>
+        <v>5.481810818700721</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.6265771327033273</v>
+        <v>-0.908470291030357</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.923470486546386</v>
+        <v>7.523508409543068</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.918303668976208</v>
+        <v>-1.847854323181015</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-5.189036892852731</v>
+        <v>-5.29937295248165</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.1855565224965231</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.2904081384143074</v>
+        <v>-0.2904081384143072</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2253485874878611</v>
+        <v>-0.2379506747426889</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4499397668925633</v>
+        <v>-0.4525791444070118</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4835479621954832</v>
+        <v>-0.4788192287572104</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.09977946497764635</v>
+        <v>0.08680778748048278</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1954064163911635</v>
+        <v>-0.1946710175796494</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3520715211079933</v>
+        <v>-0.3478876842146484</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0571587445098206</v>
+        <v>-0.033144261925448</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3048874476765882</v>
+        <v>-0.2882006487361482</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3908503250633412</v>
+        <v>-0.3872767982511174</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1055338997615065</v>
+        <v>0.1092245417302947</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1804160593349832</v>
+        <v>-0.1775919704935254</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1838706415431973</v>
+        <v>-0.2125055419335219</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5838549099916361</v>
+        <v>0.5848754050709836</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2336341424110492</v>
+        <v>0.2097425181041872</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.02021366406692674</v>
+        <v>-0.03840489471954048</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2273148123768135</v>
+        <v>0.2517441452181075</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.06430303184101205</v>
+        <v>-0.06208273228917478</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1683919417635008</v>
+        <v>-0.1713398298042412</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-5.584003050559833</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-6.026929307347306</v>
+        <v>-6.0269293073473</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-12.57309192578917</v>
@@ -1083,7 +1083,7 @@
         <v>-6.19592927564157</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-7.943335288995229</v>
+        <v>-7.943335288995224</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-15.18202064850042</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-25.74891356089408</v>
+        <v>-25.01125686285692</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.62768985965981</v>
+        <v>-12.44032179130794</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.48680256415732</v>
+        <v>-14.42625499537005</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-20.27063528548075</v>
+        <v>-19.37660411192815</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-13.72771622760736</v>
+        <v>-13.56764966972823</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-14.45049436421905</v>
+        <v>-14.71094063098523</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-19.92668622730545</v>
+        <v>-19.85293642453993</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-11.72447186750907</v>
+        <v>-10.97194374632985</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-12.7249202767879</v>
+        <v>-12.27703765833121</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.04504212497706</v>
+        <v>-10.42997755055956</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.569683154137312</v>
+        <v>2.767414744616429</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.48209609984768</v>
+        <v>1.556306830643706</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-5.880736492185981</v>
+        <v>-5.282651945640131</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.49289918636942</v>
+        <v>0.971322915999133</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-1.494087725768028</v>
+        <v>-1.278541654590921</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-9.581042979855219</v>
+        <v>-9.720398306906301</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.7879714733299854</v>
+        <v>-0.7382137295068685</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.76187246003579</v>
+        <v>-1.908633799172468</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.123996307228915</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1338317639289013</v>
+        <v>-0.1338317639289012</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.3303696953699443</v>
@@ -1188,7 +1188,7 @@
         <v>-0.1628038098670742</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2087185296294545</v>
+        <v>-0.2087185296294544</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.3662660758541411</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5275615697767824</v>
+        <v>-0.521557021394223</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2788410724151064</v>
+        <v>-0.256318668466983</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2793346289119695</v>
+        <v>-0.2929033501047755</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4822474922208099</v>
+        <v>-0.4670096762843567</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3271981721620648</v>
+        <v>-0.325605985581409</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3508494621741933</v>
+        <v>-0.3500839944777568</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4562871829465748</v>
+        <v>-0.4585051450487381</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2599227180390868</v>
+        <v>-0.2462757798525769</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2834918411257241</v>
+        <v>-0.2803952012392223</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.2419697337067405</v>
+        <v>-0.2603515578027212</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.06373396467699401</v>
+        <v>0.06794431848905796</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.0361606346834794</v>
+        <v>0.03208698180979869</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1653423552151553</v>
+        <v>-0.1435991664599846</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04206337931833106</v>
+        <v>0.02565055390719133</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.04525328379760112</v>
+        <v>-0.03429726013445398</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.2520287691493546</v>
+        <v>-0.2549585477998836</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.01858868738744428</v>
+        <v>-0.01614053286947564</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.06994446740712568</v>
+        <v>-0.04844531247025721</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-7.859717505510871</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-13.14565441987645</v>
+        <v>-13.14565441987644</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-10.14261076193072</v>
@@ -1297,7 +1297,7 @@
         <v>-10.25660519257043</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-13.50602857717075</v>
+        <v>-13.50602857717074</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-15.08545698845739</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-27.05349255041954</v>
+        <v>-27.2057286555825</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-15.39960152203516</v>
+        <v>-14.715051225201</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-21.76741064147439</v>
+        <v>-20.66730675397847</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-16.91666518373138</v>
+        <v>-16.7187795381886</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-16.87814072504531</v>
+        <v>-16.56330845790884</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-20.08540579833024</v>
+        <v>-18.84411138269072</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-19.71414314455946</v>
+        <v>-19.71562113172347</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-14.08424029605921</v>
+        <v>-13.97122581010528</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-18.20680271095105</v>
+        <v>-18.97158675041505</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-13.4237041262849</v>
+        <v>-13.27548393057484</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.503120042381126</v>
+        <v>-1.147635165306982</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-5.809375290706799</v>
+        <v>-4.914264381722553</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-3.580028933330744</v>
+        <v>-3.348909617290004</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-3.674616098343079</v>
+        <v>-3.226400978866642</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-7.508766526332276</v>
+        <v>-6.941011432902398</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-10.17605304702853</v>
+        <v>-10.42310250190442</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-3.881997870847929</v>
+        <v>-4.230469244477463</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-8.381391724097114</v>
+        <v>-8.558504697116859</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1759020363594244</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2942023527069801</v>
+        <v>-0.29420235270698</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.2774298967285182</v>
@@ -1402,7 +1402,7 @@
         <v>-0.280547975876217</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.3694291540242082</v>
+        <v>-0.3694291540242081</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.3720123562267254</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5627161081523582</v>
+        <v>-0.5662128970135987</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3247932425153053</v>
+        <v>-0.3041117403782139</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4547604738520926</v>
+        <v>-0.4341100129322775</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4311120865917368</v>
+        <v>-0.424292306761464</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4276131356185014</v>
+        <v>-0.4228818444633137</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4958226012079194</v>
+        <v>-0.4783027210545424</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4618186507968483</v>
+        <v>-0.4616102322510116</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3296222705901357</v>
+        <v>-0.3272506196132063</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4258453315941518</v>
+        <v>-0.4453004420720766</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3244463688799002</v>
+        <v>-0.324162315264074</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.01055416821312111</v>
+        <v>-0.01913811312048703</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1358922437460927</v>
+        <v>-0.1131970987210759</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1080662074404193</v>
+        <v>-0.100427433239594</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1108066488870052</v>
+        <v>-0.1008181360817363</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2174400329789814</v>
+        <v>-0.2104413317808036</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2627427224863194</v>
+        <v>-0.2704267102408393</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1001944939437769</v>
+        <v>-0.1127046275792843</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2178924453917429</v>
+        <v>-0.2255780154804972</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-2.123677655377107</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-5.676094781523677</v>
+        <v>-5.676094781523674</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>12.05835986349622</v>
@@ -1511,7 +1511,7 @@
         <v>0.3852888131740728</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-3.592316335904028</v>
+        <v>-3.592316335904033</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>12.76068399099255</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.041640358313974</v>
+        <v>4.06820261092488</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.526189316708072</v>
+        <v>-10.07067378299874</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-12.02780687832775</v>
+        <v>-12.4362532368771</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.825070235366097</v>
+        <v>2.910786696072133</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-7.045433491915351</v>
+        <v>-7.832609355381616</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-10.14210831593371</v>
+        <v>-10.10762184897308</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.613343985527652</v>
+        <v>7.10450566187058</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.621736900169195</v>
+        <v>-5.930522711558321</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-9.505130780372113</v>
+        <v>-9.681347123428621</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>21.83732803566208</v>
+        <v>22.05274673313688</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.689212205178075</v>
+        <v>6.089182141699072</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.9862723057369</v>
+        <v>1.063883753896115</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20.30870563150552</v>
+        <v>20.57954779897095</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.682019247704952</v>
+        <v>7.757260449815588</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.418676540967889</v>
+        <v>2.426823203739133</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>18.90469453143437</v>
+        <v>19.31338954696382</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.521968839151097</v>
+        <v>4.221605082295034</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6600229920902654</v>
+        <v>-0.2887280714510614</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.09945141514463664</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2658104242366188</v>
+        <v>-0.2658104242366187</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.6438815220748317</v>
@@ -1616,7 +1616,7 @@
         <v>0.02057330766980433</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1918192968463562</v>
+        <v>-0.1918192968463564</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.6373640345510074</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1846645450834698</v>
+        <v>0.1326658079178707</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3747635091877944</v>
+        <v>-0.3995982059124716</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4889543065635231</v>
+        <v>-0.4935271267237032</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1627136764862433</v>
+        <v>0.09511622631841188</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3237621651937116</v>
+        <v>-0.335538438234443</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4396996482654177</v>
+        <v>-0.4345037356857221</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2869882221324251</v>
+        <v>0.3111272452740886</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2827248924596516</v>
+        <v>-0.262771435050941</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4151252893482533</v>
+        <v>-0.4204261987338853</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.253065360612958</v>
+        <v>1.25046564960287</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3270299488761088</v>
+        <v>0.348609452291967</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.105866532794927</v>
+        <v>0.05985492703246131</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.388813178096047</v>
+        <v>1.384538016793747</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.511150741118823</v>
+        <v>0.5049344089915</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1800755745921126</v>
+        <v>0.1691827037108718</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.135104378319689</v>
+        <v>1.134389455155862</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2693091697154928</v>
+        <v>0.2412945116456725</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.03851469450645288</v>
+        <v>-0.01360763566690518</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-13.74624596294096</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-4.181460704372341</v>
+        <v>-4.181460704372358</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-17.87653155518417</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-24.69473410997745</v>
+        <v>-24.89249410677121</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-16.03241350245673</v>
+        <v>-15.84962633529787</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-22.10482452742571</v>
+        <v>-22.00803114655498</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-27.80498282045068</v>
+        <v>-28.12417157878391</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-22.26287172957232</v>
+        <v>-21.70926956006569</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-11.61121055218724</v>
+        <v>-11.78053776466013</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-23.7789969962316</v>
+        <v>-23.56199435128217</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-16.57470361157755</v>
+        <v>-16.12377005921867</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-14.7649169241258</v>
+        <v>-14.25275825165496</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-7.933350566840085</v>
+        <v>-7.710471903646154</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.346394843245356</v>
+        <v>1.496984224007016</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-6.531006554273558</v>
+        <v>-5.316091829324049</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-11.56330977929012</v>
+        <v>-11.53561039254397</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-5.871297689700774</v>
+        <v>-5.150503231566248</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.970109477737083</v>
+        <v>3.409300629112624</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-12.00760889263432</v>
+        <v>-12.06612362256022</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-4.970198436100513</v>
+        <v>-4.662200036045055</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-3.697627347435455</v>
+        <v>-3.356368763031166</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.3131559446354665</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.09525868228780422</v>
+        <v>-0.09525868228780461</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.3925050669810358</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4763294807282897</v>
+        <v>-0.4878255145472238</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3137335764435761</v>
+        <v>-0.3126430339737977</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4272752291120728</v>
+        <v>-0.4263046877963391</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.5873228977609523</v>
+        <v>-0.5761145853609945</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4684469641825562</v>
+        <v>-0.456029108602259</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2364075946102262</v>
+        <v>-0.2419069816153508</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4927769806456031</v>
+        <v>-0.4929692625690142</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3423995932263531</v>
+        <v>-0.3358081172293488</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3020645590519888</v>
+        <v>-0.2955952759657748</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.1855833025685638</v>
+        <v>-0.1811768090666453</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.02923356412393002</v>
+        <v>0.02855138731147044</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.1500824702680508</v>
+        <v>-0.1288860271913212</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.2868166321247711</v>
+        <v>-0.2804915449615925</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.1468251187733158</v>
+        <v>-0.1326405851478878</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.09761449347272355</v>
+        <v>0.1043678226566627</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.2778204805163563</v>
+        <v>-0.2852568806419877</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.1158030638481314</v>
+        <v>-0.1080508482088136</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.08736506217959944</v>
+        <v>-0.08258762386772632</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>7.393976196866165</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>5.370039635897411</v>
+        <v>5.370039635897406</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-9.484978826040919</v>
@@ -1948,7 +1948,7 @@
         <v>4.844393912818246</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.7768920591078754</v>
+        <v>0.7768920591078698</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-15.12173711902814</v>
+        <v>-15.33012364258874</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.005466550956024</v>
+        <v>-3.20721288072438</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-9.793547538981773</v>
+        <v>-10.21208779386443</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-14.00424609944032</v>
+        <v>-14.36814861067734</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.029629334343765</v>
+        <v>1.967143750601149</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.4536638011656687</v>
+        <v>0.479913021044078</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-13.2172417754066</v>
+        <v>-13.19846473858025</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.9777101856689896</v>
+        <v>0.5781274123800419</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-3.454279186159481</v>
+        <v>-3.006301947672425</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-4.314892679405584</v>
+        <v>-3.945395298286543</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.250339190545883</v>
+        <v>7.739363937646138</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.603670673718566</v>
+        <v>2.192955963807357</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-3.654135808373272</v>
+        <v>-3.890103798587505</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>12.91050654315516</v>
+        <v>12.55926011655298</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>10.44601384872433</v>
+        <v>10.61927465196422</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-5.330255566015512</v>
+        <v>-5.824336569353835</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>8.955052598248802</v>
+        <v>8.629346773502903</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.665049591489212</v>
+        <v>5.259375191595544</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.2084198921980386</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1513695814286365</v>
+        <v>0.1513695814286363</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.2382132254629227</v>
@@ -2053,7 +2053,7 @@
         <v>0.121665922565593</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.01951147879513677</v>
+        <v>0.01951147879513663</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3298564455916316</v>
+        <v>-0.3267464939744836</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.08492586580326002</v>
+        <v>-0.07022467188618617</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2083760532032898</v>
+        <v>-0.2145299342398344</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3720315554861536</v>
+        <v>-0.3727903027065482</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.0516968233884947</v>
+        <v>0.05529035601456566</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01341844783761075</v>
+        <v>0.01142266486194578</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3166010823434325</v>
+        <v>-0.3155713224517465</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.02428078730497416</v>
+        <v>0.01032248510597564</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.08352345318277</v>
+        <v>-0.07266079315312507</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1041241271632096</v>
+        <v>-0.09357534071254625</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1702222249186676</v>
+        <v>0.1847654703816101</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.03858437885346865</v>
+        <v>0.05253413420617608</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.1090138608680611</v>
+        <v>-0.1186090718573357</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3828192631052761</v>
+        <v>0.3912453072387607</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3242454341743402</v>
+        <v>0.3288454127544533</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.1416712676281019</v>
+        <v>-0.1534704297037189</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2439502888113725</v>
+        <v>0.2267942329596515</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.124436253837118</v>
+        <v>0.1421029453926473</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>10.49509381648431</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>7.589969756855086</v>
+        <v>7.589969756855081</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>9.270888818200001</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.509400206048061</v>
+        <v>-0.306843580441535</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>6.010118178614437</v>
+        <v>5.867288431682112</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3.306897952988596</v>
+        <v>2.577871685589971</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4.443772501945718</v>
+        <v>4.468101375934327</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>4.05577748468259</v>
+        <v>3.881652976573716</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>8.920685215018377</v>
+        <v>9.10596374555702</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>3.739130470926848</v>
+        <v>3.462247194806332</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>6.196131637382166</v>
+        <v>6.300381556106095</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>7.212336568397351</v>
+        <v>7.182382323828268</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>9.083214196616973</v>
+        <v>9.35563247893336</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>15.32390187731608</v>
+        <v>15.02327463612182</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>12.71788166419453</v>
+        <v>12.71550923914059</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>13.54627821916692</v>
+        <v>13.45227909254129</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>13.09732026040179</v>
+        <v>12.6920444306359</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>17.50888498986488</v>
+        <v>17.23625799073397</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>10.42558884834703</v>
+        <v>10.37899056333148</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>12.6417018493057</v>
+        <v>13.00721393575017</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>13.60251191576732</v>
+        <v>13.79201362041081</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.3650285930999795</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.263985823324855</v>
+        <v>0.2639858233248549</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.4018957943400616</v>
@@ -2267,7 +2267,7 @@
         <v>0.3655179425447491</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.4034449160654814</v>
+        <v>0.4034449160654816</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.01529848965312978</v>
+        <v>-0.00935519164099838</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1915093126771684</v>
+        <v>0.1874443719785942</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.1054234543946668</v>
+        <v>0.07767077131798869</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1749780717606148</v>
+        <v>0.1744071911146715</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.165395357710473</v>
+        <v>0.1545929552931961</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3431582856698132</v>
+        <v>0.3552409163876096</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1338525361111663</v>
+        <v>0.1246257103503124</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.2210241858433453</v>
+        <v>0.2236714545580878</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.2583787690310533</v>
+        <v>0.2638912431288257</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3500026745522092</v>
+        <v>0.3525102442767066</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.5860645080327866</v>
+        <v>0.5859496334448518</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4874164445359171</v>
+        <v>0.478611837869531</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.6530302994957785</v>
+        <v>0.6470027102676067</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6341813437972692</v>
+        <v>0.6034674016844506</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.8277172873833737</v>
+        <v>0.8332863097185157</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.42881424362755</v>
+        <v>0.4175558309914786</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.5211772745721548</v>
+        <v>0.5344089893167819</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.5477295297032372</v>
+        <v>0.5774061538785233</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>-2.15001967416269</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-3.28441382824588</v>
+        <v>-3.284413828245869</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>-1.860732527080294</v>
@@ -2367,7 +2367,7 @@
         <v>0.1066032647417559</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>3.226813214770385</v>
+        <v>3.226813214770391</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>-4.45818026246188</v>
@@ -2376,7 +2376,7 @@
         <v>-1.020240960607455</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>0.01915920519665049</v>
+        <v>0.01915920519664494</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-9.372412939261872</v>
+        <v>-9.33204324507707</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-4.62208203514822</v>
+        <v>-4.39918465262216</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-5.792124496335662</v>
+        <v>-5.757826448022747</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-4.014963653568706</v>
+        <v>-3.941125217847655</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-2.026561379896219</v>
+        <v>-2.279321230324081</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>1.033251405195203</v>
+        <v>1.019454163421152</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-6.183483172760846</v>
+        <v>-6.213565941972192</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-2.520262802054527</v>
+        <v>-2.820869004515113</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-1.69265015499467</v>
+        <v>-1.585594920740538</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-4.801493193071262</v>
+        <v>-4.691210042428642</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.3040804257836935</v>
+        <v>0.1419947609299994</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-0.5724621153674687</v>
+        <v>-0.7332540770709651</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.4386588486653847</v>
+        <v>0.3563613021423506</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>2.491858859017622</v>
+        <v>2.34053373209741</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>5.255059467554559</v>
+        <v>5.330756950331057</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-2.97003509523641</v>
+        <v>-2.908541899126716</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>0.8402381330275299</v>
+        <v>0.7096594745592839</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>1.57894865351389</v>
+        <v>1.644335068896816</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>-0.0554593613727218</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.08472084957510471</v>
+        <v>-0.08472084957510444</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>-0.05952805349719932</v>
@@ -2472,7 +2472,7 @@
         <v>0.003410422913647227</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1032313386683933</v>
+        <v>0.1032313386683935</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.1275582319072593</v>
@@ -2481,7 +2481,7 @@
         <v>-0.02919131246222538</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.0005481865235937185</v>
+        <v>0.0005481865235935597</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.234751159396934</v>
+        <v>-0.2340673848795728</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1167606112627715</v>
+        <v>-0.1126170649080034</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1450855884744012</v>
+        <v>-0.1427479976515139</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.1253650471807879</v>
+        <v>-0.1245216087097284</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.06320401359952003</v>
+        <v>-0.07108903390902903</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.03122287687331767</v>
+        <v>0.03140103622864874</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.1721047098959322</v>
+        <v>-0.1738810568833372</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.07029091110726433</v>
+        <v>-0.07781896619456979</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.04705409542205791</v>
+        <v>-0.04432924909929978</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.1275571558756261</v>
+        <v>-0.1239101902150563</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.007991491052590926</v>
+        <v>0.002667010275298883</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.01517156721067198</v>
+        <v>-0.01895840094147887</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.01520880358886989</v>
+        <v>0.01164709874062929</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.08459853079296785</v>
+        <v>0.07778420505117613</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1736338363842744</v>
+        <v>0.1786657228818977</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.08658509951423649</v>
+        <v>-0.08579957110998013</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.02472410280995363</v>
+        <v>0.02131034264357142</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.04585798757490173</v>
+        <v>0.04830098641073492</v>
       </c>
     </row>
     <row r="58">
